--- a/modified_tables/table_21.xlsx
+++ b/modified_tables/table_21.xlsx
@@ -14,111 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>2019</t>
+    <t>Heads of Division</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>Heads of Department</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>12,318.6</t>
-  </si>
-  <si>
-    <t>14,321.0</t>
-  </si>
-  <si>
-    <t>15,646.0</t>
-  </si>
-  <si>
-    <t>By gender and level</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>4,832.4</t>
-  </si>
-  <si>
-    <t>5,400.5</t>
-  </si>
-  <si>
-    <t>6,740.5</t>
-  </si>
-  <si>
-    <t>Of which: managers</t>
-  </si>
-  <si>
-    <t>479.0</t>
-  </si>
-  <si>
-    <t>563.5</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>7,486.2</t>
-  </si>
-  <si>
-    <t>8,920.5</t>
-  </si>
-  <si>
-    <t>8,905.5</t>
-  </si>
-  <si>
-    <t>2,120.0</t>
-  </si>
-  <si>
-    <t>2,044.0</t>
-  </si>
-  <si>
-    <t>Per employee</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>Professional development costs per employee (€)</t>
-  </si>
-  <si>
-    <t>1,222.0</t>
-  </si>
-  <si>
-    <t>1,274</t>
+    <t>Heads of Group</t>
   </si>
 </sst>
 </file>
@@ -476,147 +383,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>6.1</v>
+      </c>
+      <c r="C2">
+        <v>15.4</v>
+      </c>
+      <c r="D2">
+        <v>20.4</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>5.9</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>20.4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>6.3</v>
+      </c>
+      <c r="C4">
+        <v>15.3</v>
+      </c>
+      <c r="D4">
+        <v>21.4</v>
       </c>
     </row>
   </sheetData>
